--- a/teaching/traditional_assets/database/data/qatar/qatar_insurance_prop_cas.xlsx
+++ b/teaching/traditional_assets/database/data/qatar/qatar_insurance_prop_cas.xlsx
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0779</v>
+        <v>0.03875</v>
       </c>
       <c r="E2">
-        <v>-0.112</v>
+        <v>-0.104</v>
       </c>
       <c r="G2">
-        <v>0.0786316749301875</v>
+        <v>0.08152889209411342</v>
       </c>
       <c r="H2">
-        <v>0.0786316749301875</v>
+        <v>0.08152889209411342</v>
       </c>
       <c r="I2">
-        <v>0.07779639729444204</v>
+        <v>0.01983361287476844</v>
       </c>
       <c r="J2">
-        <v>0.07779639729444204</v>
+        <v>0.01831107610869383</v>
       </c>
       <c r="K2">
-        <v>265.4</v>
+        <v>-82.41000000000001</v>
       </c>
       <c r="L2">
-        <v>0.07562546304211545</v>
+        <v>-0.02476336428378257</v>
       </c>
       <c r="M2">
-        <v>42.42</v>
+        <v>147.74</v>
       </c>
       <c r="N2">
-        <v>0.01136930127844335</v>
+        <v>0.04792396522641755</v>
       </c>
       <c r="O2">
-        <v>0.1598342125094198</v>
+        <v>-1.792743599077782</v>
       </c>
       <c r="P2">
-        <v>42.42</v>
+        <v>147.74</v>
       </c>
       <c r="Q2">
-        <v>0.01136930127844335</v>
+        <v>0.04792396522641755</v>
       </c>
       <c r="R2">
-        <v>0.1598342125094198</v>
+        <v>-1.792743599077782</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,73 +639,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>2235.69</v>
+        <v>2569</v>
       </c>
       <c r="V2">
-        <v>0.5992039881000241</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="W2">
-        <v>0.06715903205801389</v>
+        <v>0.02626345385964629</v>
       </c>
       <c r="X2">
-        <v>0.05516088427110108</v>
+        <v>0.05555890013310026</v>
       </c>
       <c r="Y2">
-        <v>0.01199814778691281</v>
+        <v>-0.02929544627345397</v>
       </c>
       <c r="Z2">
-        <v>0.8430997843798349</v>
+        <v>0.7469794571935728</v>
       </c>
       <c r="AA2">
-        <v>0.06181603910261088</v>
+        <v>0.03444048819233331</v>
       </c>
       <c r="AB2">
-        <v>0.05005523022737912</v>
+        <v>0.0465909314744794</v>
       </c>
       <c r="AC2">
-        <v>0.0131434727581554</v>
+        <v>-0.01215044328214608</v>
       </c>
       <c r="AD2">
-        <v>1834.594</v>
+        <v>2025.7</v>
       </c>
       <c r="AE2">
-        <v>11.30661667442551</v>
+        <v>0.1385985702906483</v>
       </c>
       <c r="AF2">
-        <v>1845.900616674425</v>
+        <v>2025.838598570291</v>
       </c>
       <c r="AG2">
-        <v>-389.7893833255746</v>
+        <v>-543.1614014297093</v>
       </c>
       <c r="AH2">
-        <v>0.3309844741912794</v>
+        <v>0.3965515585966962</v>
       </c>
       <c r="AI2">
-        <v>0.2736045486540624</v>
+        <v>0.3021502730922691</v>
       </c>
       <c r="AJ2">
-        <v>-0.1166576317030735</v>
+        <v>-0.2138735022122779</v>
       </c>
       <c r="AK2">
-        <v>-0.0864103540169321</v>
+        <v>-0.1313335909618364</v>
       </c>
       <c r="AL2">
-        <v>61.40799999999999</v>
+        <v>41.676</v>
       </c>
       <c r="AM2">
-        <v>61.40799999999999</v>
+        <v>41.676</v>
       </c>
       <c r="AN2">
-        <v>6.308131898359867</v>
+        <v>21.74384405658959</v>
       </c>
       <c r="AO2">
-        <v>4.387864773319437</v>
+        <v>1.58100585468855</v>
       </c>
       <c r="AP2">
-        <v>-1.340265389834524</v>
+        <v>-5.830289189043915</v>
       </c>
       <c r="AQ2">
-        <v>4.387864773319437</v>
+        <v>1.58100585468855</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +716,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Qatar Insurance Company Q.S.P.C. (DSM:QATI)</t>
+          <t>Al Khaleej Takaful Insurance Company Q.P.S.C. (DSM:AKHI)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -725,118 +725,115 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.235</v>
+        <v>-0.0435</v>
       </c>
       <c r="E3">
-        <v>-0.07400000000000001</v>
+        <v>-0.104</v>
       </c>
       <c r="G3">
-        <v>0.06675828370743625</v>
+        <v>0.2069672131147541</v>
       </c>
       <c r="H3">
-        <v>0.06675828370743625</v>
+        <v>0.2069672131147541</v>
       </c>
       <c r="I3">
-        <v>0.0689244363328993</v>
+        <v>0.1737704918032787</v>
       </c>
       <c r="J3">
-        <v>0.0689244363328993</v>
+        <v>0.1737066837891527</v>
       </c>
       <c r="K3">
-        <v>186.6</v>
+        <v>8.17</v>
       </c>
       <c r="L3">
-        <v>0.05698579935868071</v>
+        <v>0.1674180327868852</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>3.54</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0.02659654395191586</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>0.4332925336597307</v>
       </c>
       <c r="P3">
-        <v>-0</v>
+        <v>3.54</v>
       </c>
       <c r="Q3">
-        <v>-0</v>
+        <v>0.02659654395191586</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>0.4332925336597307</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
       <c r="U3">
-        <v>2186.3</v>
+        <v>53.9</v>
       </c>
       <c r="V3">
-        <v>0.7712360660364047</v>
+        <v>0.4049586776859504</v>
       </c>
       <c r="W3">
-        <v>0.07197130404597524</v>
+        <v>0.05565395095367847</v>
       </c>
       <c r="X3">
-        <v>0.05976159682689727</v>
+        <v>0.04403464283087184</v>
       </c>
       <c r="Y3">
-        <v>0.01220970721907796</v>
+        <v>0.01161930812280663</v>
       </c>
       <c r="Z3">
-        <v>1.908790014059806</v>
+        <v>0.346089472639074</v>
       </c>
       <c r="AA3">
-        <v>0.1315622757969391</v>
+        <v>0.06011805458647023</v>
       </c>
       <c r="AB3">
-        <v>0.05117638566700344</v>
+        <v>0.04403464283087184</v>
       </c>
       <c r="AC3">
-        <v>0.08038589012993563</v>
+        <v>0.01608341175559839</v>
       </c>
       <c r="AD3">
-        <v>1228.4</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>9.484666139606219</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>1237.884666139606</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>-948.415333860394</v>
+        <v>-53.9</v>
       </c>
       <c r="AH3">
-        <v>0.3039480754381521</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.3112855984483404</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.5027687888288869</v>
+        <v>-0.6805555555555556</v>
       </c>
       <c r="AK3">
-        <v>-0.5297271317148562</v>
+        <v>-0.5608740894901145</v>
       </c>
       <c r="AL3">
-        <v>37.4</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>37.4</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>5.203100512516413</v>
-      </c>
-      <c r="AO3">
-        <v>5.970588235294118</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-4.017177067475937</v>
-      </c>
-      <c r="AQ3">
-        <v>5.970588235294118</v>
+        <v>-5.39</v>
       </c>
     </row>
     <row r="4">
@@ -847,7 +844,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Al Khaleej Takaful Insurance Company Q.P.S.C. (DSM:AKHI)</t>
+          <t>Doha Insurance Group Q.P.S.C. (DSM:DOHI)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -856,46 +853,46 @@
         </is>
       </c>
       <c r="D4">
+        <v>0.121</v>
+      </c>
+      <c r="E4">
         <v>-0.0291</v>
       </c>
-      <c r="E4">
-        <v>-0.15</v>
-      </c>
       <c r="G4">
-        <v>0.1794171220400728</v>
+        <v>0.1500956022944551</v>
       </c>
       <c r="H4">
-        <v>0.1794171220400728</v>
+        <v>0.1500956022944551</v>
       </c>
       <c r="I4">
-        <v>0.1985428051001822</v>
+        <v>0.1481835564053537</v>
       </c>
       <c r="J4">
-        <v>0.1985428051001822</v>
+        <v>0.1481234819905948</v>
       </c>
       <c r="K4">
-        <v>10.7</v>
+        <v>14.8</v>
       </c>
       <c r="L4">
-        <v>0.1948998178506375</v>
+        <v>0.1414913957934991</v>
       </c>
       <c r="M4">
-        <v>3.52</v>
+        <v>10.9</v>
       </c>
       <c r="N4">
-        <v>0.02510699001426534</v>
+        <v>0.05700836820083682</v>
       </c>
       <c r="O4">
-        <v>0.3289719626168224</v>
+        <v>0.7364864864864865</v>
       </c>
       <c r="P4">
-        <v>3.52</v>
+        <v>10.9</v>
       </c>
       <c r="Q4">
-        <v>0.02510699001426534</v>
+        <v>0.05700836820083682</v>
       </c>
       <c r="R4">
-        <v>0.3289719626168224</v>
+        <v>0.7364864864864865</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -904,73 +901,73 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>6.79</v>
+        <v>48.3</v>
       </c>
       <c r="V4">
-        <v>0.04843081312410842</v>
+        <v>0.2526150627615063</v>
       </c>
       <c r="W4">
-        <v>0.07583274273564847</v>
+        <v>0.05066757959602876</v>
       </c>
       <c r="X4">
-        <v>0.04850381264774201</v>
+        <v>0.0469612908225316</v>
       </c>
       <c r="Y4">
-        <v>0.02732893008790645</v>
+        <v>0.003706288773497157</v>
       </c>
       <c r="Z4">
-        <v>0.3750000000000001</v>
+        <v>0.3642061281337047</v>
       </c>
       <c r="AA4">
-        <v>0.07445355191256832</v>
+        <v>0.05394747986147706</v>
       </c>
       <c r="AB4">
-        <v>0.04841105790115615</v>
+        <v>0.04483196494165317</v>
       </c>
       <c r="AC4">
-        <v>0.02604249401141217</v>
+        <v>0.009115514919823896</v>
       </c>
       <c r="AD4">
-        <v>0.994</v>
+        <v>17.9</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.994</v>
+        <v>17.9</v>
       </c>
       <c r="AG4">
-        <v>-5.796</v>
+        <v>-30.4</v>
       </c>
       <c r="AH4">
-        <v>0.007039959205065372</v>
+        <v>0.08560497369679579</v>
       </c>
       <c r="AI4">
-        <v>0.006725577492997009</v>
+        <v>0.05761184422272288</v>
       </c>
       <c r="AJ4">
-        <v>-0.04312371655605488</v>
+        <v>-0.1890547263681592</v>
       </c>
       <c r="AK4">
-        <v>-0.04110521687328018</v>
+        <v>-0.1158536585365853</v>
       </c>
       <c r="AL4">
-        <v>0.276</v>
+        <v>0.776</v>
       </c>
       <c r="AM4">
-        <v>0.276</v>
+        <v>0.776</v>
       </c>
       <c r="AN4">
-        <v>0.06902777777777777</v>
+        <v>1.017045454545454</v>
       </c>
       <c r="AO4">
-        <v>39.49275362318841</v>
+        <v>19.97422680412371</v>
       </c>
       <c r="AP4">
-        <v>-0.4025</v>
+        <v>-1.727272727272727</v>
       </c>
       <c r="AQ4">
-        <v>39.49275362318841</v>
+        <v>19.97422680412371</v>
       </c>
     </row>
     <row r="5">
@@ -981,7 +978,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Doha Insurance Group Q.P.S.C. (DSM:DOHI)</t>
+          <t>Qatar Insurance Company Q.S.P.C. (DSM:QATI)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -990,46 +987,46 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.0779</v>
+        <v>0.165</v>
       </c>
       <c r="E5">
-        <v>-0.0529</v>
+        <v>-0.5429999999999999</v>
       </c>
       <c r="G5">
-        <v>0.1059371362048894</v>
+        <v>0.08107586384402549</v>
       </c>
       <c r="H5">
-        <v>0.1059371362048894</v>
+        <v>0.08107586384402549</v>
       </c>
       <c r="I5">
-        <v>0.1041909196740396</v>
+        <v>0.01206486069107522</v>
       </c>
       <c r="J5">
-        <v>0.1041909196740396</v>
+        <v>0.008369522856764761</v>
       </c>
       <c r="K5">
-        <v>17.8</v>
+        <v>5.02</v>
       </c>
       <c r="L5">
-        <v>0.2072176949941793</v>
+        <v>0.001615082684511936</v>
       </c>
       <c r="M5">
-        <v>13.3</v>
+        <v>133.3</v>
       </c>
       <c r="N5">
-        <v>0.08070388349514562</v>
+        <v>0.06290406304563259</v>
       </c>
       <c r="O5">
-        <v>0.7471910112359551</v>
+        <v>26.55378486055777</v>
       </c>
       <c r="P5">
-        <v>13.3</v>
+        <v>133.3</v>
       </c>
       <c r="Q5">
-        <v>0.08070388349514562</v>
+        <v>0.06290406304563259</v>
       </c>
       <c r="R5">
-        <v>0.7471910112359551</v>
+        <v>26.55378486055777</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1038,73 +1035,73 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>19</v>
+        <v>2373.2</v>
       </c>
       <c r="V5">
-        <v>0.1152912621359223</v>
+        <v>1.119909395498089</v>
       </c>
       <c r="W5">
-        <v>0.06234676007005254</v>
+        <v>0.001859328123263824</v>
       </c>
       <c r="X5">
-        <v>0.05056017171530489</v>
+        <v>0.06415650944366892</v>
       </c>
       <c r="Y5">
-        <v>0.01178658835474766</v>
+        <v>-0.0622971813204051</v>
       </c>
       <c r="Z5">
-        <v>0.4720039562613331</v>
+        <v>1.784270952927669</v>
       </c>
       <c r="AA5">
-        <v>0.04917852629265344</v>
+        <v>0.01493349652318957</v>
       </c>
       <c r="AB5">
-        <v>0.04893407478775481</v>
+        <v>0.04834989800730562</v>
       </c>
       <c r="AC5">
-        <v>0.0002444515048986226</v>
+        <v>-0.03341640148411606</v>
       </c>
       <c r="AD5">
-        <v>14.1</v>
+        <v>1364</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>14.1</v>
+        <v>1364</v>
       </c>
       <c r="AG5">
-        <v>-4.9</v>
+        <v>-1009.2</v>
       </c>
       <c r="AH5">
-        <v>0.07881498043599776</v>
+        <v>0.3916051792943068</v>
       </c>
       <c r="AI5">
-        <v>0.04604833442194643</v>
+        <v>0.3226264250910639</v>
       </c>
       <c r="AJ5">
-        <v>-0.03064415259537211</v>
+        <v>-0.9092711055050002</v>
       </c>
       <c r="AK5">
-        <v>-0.01706128133704735</v>
+        <v>-0.5441604658686507</v>
       </c>
       <c r="AL5">
-        <v>0.332</v>
+        <v>21.7</v>
       </c>
       <c r="AM5">
-        <v>0.332</v>
+        <v>21.7</v>
       </c>
       <c r="AN5">
-        <v>1.281818181818182</v>
+        <v>23.11864406779661</v>
       </c>
       <c r="AO5">
-        <v>26.9578313253012</v>
+        <v>1.728110599078341</v>
       </c>
       <c r="AP5">
-        <v>-0.4454545454545455</v>
+        <v>-17.10508474576271</v>
       </c>
       <c r="AQ5">
-        <v>26.9578313253012</v>
+        <v>1.728110599078341</v>
       </c>
     </row>
     <row r="6">
@@ -1123,119 +1120,116 @@
           <t>Insurance (Prop/Cas.)</t>
         </is>
       </c>
-      <c r="E6">
-        <v>-0.347</v>
+      <c r="D6">
+        <v>-0.119</v>
       </c>
       <c r="G6">
-        <v>0.40807651434644</v>
+        <v>-0.09773755656108599</v>
       </c>
       <c r="H6">
-        <v>0.40807651434644</v>
+        <v>-0.09773755656108599</v>
       </c>
       <c r="I6">
-        <v>0.2919831019451237</v>
+        <v>0.06823952165824844</v>
       </c>
       <c r="J6">
-        <v>0.2919831019451237</v>
+        <v>0.06823952165824844</v>
       </c>
       <c r="K6">
-        <v>50.3</v>
+        <v>-110.4</v>
       </c>
       <c r="L6">
-        <v>0.5345377258235919</v>
+        <v>-1.665158371040724</v>
       </c>
       <c r="M6">
-        <v>25.6</v>
+        <v>-0</v>
       </c>
       <c r="N6">
-        <v>0.04329443598849992</v>
+        <v>-0</v>
       </c>
       <c r="O6">
-        <v>0.5089463220675945</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>25.6</v>
+        <v>-0</v>
       </c>
       <c r="Q6">
-        <v>0.04329443598849992</v>
+        <v>-0</v>
       </c>
       <c r="R6">
-        <v>0.5089463220675945</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
       <c r="U6">
-        <v>23.6</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="V6">
-        <v>0.03991205817689836</v>
+        <v>0.1463872380356584</v>
       </c>
       <c r="W6">
-        <v>0.02988710635769459</v>
+        <v>-0.06428696209165551</v>
       </c>
       <c r="X6">
-        <v>0.07459611082355422</v>
+        <v>0.07551771994021826</v>
       </c>
       <c r="Y6">
-        <v>-0.04470900446585963</v>
+        <v>-0.1398046820318738</v>
       </c>
       <c r="Z6">
-        <v>0.04441566367055039</v>
+        <v>0.02901609699336542</v>
       </c>
       <c r="AA6">
-        <v>0.01296862325347864</v>
+        <v>0.001980044579216597</v>
       </c>
       <c r="AB6">
-        <v>0.05664767933450504</v>
+        <v>0.048708097248103</v>
       </c>
       <c r="AC6">
-        <v>-0.04367905608102639</v>
+        <v>-0.0467280526688864</v>
       </c>
       <c r="AD6">
-        <v>591.1</v>
+        <v>643.8</v>
       </c>
       <c r="AE6">
-        <v>1.821950534819286</v>
+        <v>0.1385985702906483</v>
       </c>
       <c r="AF6">
-        <v>592.9219505348193</v>
+        <v>643.9385985702907</v>
       </c>
       <c r="AG6">
-        <v>569.3219505348193</v>
+        <v>550.3385985702906</v>
       </c>
       <c r="AH6">
-        <v>0.5006848169526358</v>
+        <v>0.5017682779023972</v>
       </c>
       <c r="AI6">
-        <v>0.2560198327918153</v>
+        <v>0.3193761884267595</v>
       </c>
       <c r="AJ6">
-        <v>0.4905317793382017</v>
+        <v>0.4625710212576383</v>
       </c>
       <c r="AK6">
-        <v>0.248360379920452</v>
+        <v>0.2862413138795469</v>
       </c>
       <c r="AL6">
-        <v>23.4</v>
+        <v>19.2</v>
       </c>
       <c r="AM6">
-        <v>23.4</v>
+        <v>19.2</v>
       </c>
       <c r="AN6">
-        <v>20.14655760054533</v>
+        <v>98.11033221578786</v>
       </c>
       <c r="AO6">
-        <v>1.123931623931624</v>
+        <v>0.2296875</v>
       </c>
       <c r="AP6">
-        <v>19.40429279259779</v>
+        <v>83.86750968763953</v>
       </c>
       <c r="AQ6">
-        <v>1.123931623931624</v>
+        <v>0.2296875</v>
       </c>
     </row>
   </sheetData>
